--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>PJ名</t>
   </si>
@@ -44,14 +44,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -61,21 +61,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -85,24 +85,14 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -115,53 +105,49 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面遷移図</t>
@@ -171,7 +157,7 @@
     <rPh sb="2" eb="5">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -184,42 +170,82 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2. プロジェクト管理(A102)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>プロジェクト照会取引追加</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot;版&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -232,12 +258,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -474,6 +494,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -916,25 +942,43 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,113 +987,95 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1061,8 +1087,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,32 +1128,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,34 +1163,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1179,19 +1205,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1237,27 +1263,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1276,10 +1308,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,31 +1491,31 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,7 +1630,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -5156,13 +5203,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5172,7 +5219,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="2790825"/>
+          <a:off x="4419600" y="4791075"/>
           <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -7286,6 +7333,937 @@
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2809875" y="1800225"/>
+          <a:ext cx="289892" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180147</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 270"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1561272" y="3035577"/>
+          <a:ext cx="4858578" cy="1455254"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218245</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 271"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1875595" y="857250"/>
+          <a:ext cx="1886779" cy="242681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10202/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト照会</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87795</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87796</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 274"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2021370" y="1442831"/>
+          <a:ext cx="1104901" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86332</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81935</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30807</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="2572357" y="1432575"/>
+          <a:ext cx="548053" cy="217482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13233"/>
+            <a:gd name="adj2" fmla="val 191460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176484</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3214959" y="1192854"/>
+          <a:ext cx="1287467" cy="225066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval 293"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="329132" y="1669935"/>
+          <a:ext cx="117716" cy="116371"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170623</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 294"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="45" idx="6"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="446848" y="1728121"/>
+          <a:ext cx="1574522" cy="460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179797</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178077</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="456022" y="1524159"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87796</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158197</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3126271" y="3728831"/>
+          <a:ext cx="1451526" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255997</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254277</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3294472" y="3495834"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト名リンク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158197</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84068</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 274"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4577797" y="3414506"/>
+          <a:ext cx="1306996" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト詳細【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020202</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84068</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3122543" y="3848100"/>
+          <a:ext cx="1458982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141697</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139977</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3456397" y="3876834"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7650,7 +8628,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="9" width="8.83203125" style="24"/>
+    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,7 +8668,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7702,7 +8682,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43595</v>
+        <v>43803</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
@@ -8278,10 +9258,10 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8304,57 +9284,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
-        <v>17</v>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="134" t="s">
+        <v>11</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="127" t="s">
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="152" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="112">
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="119">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8362,53 +9342,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
-        <v>18</v>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="s">
+        <v>17</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="118" t="s">
-        <v>14</v>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="125" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="131" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="112" t="str">
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="119">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>43803</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="121"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8416,45 +9396,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="148" t="s">
-        <v>28</v>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="155" t="s">
+        <v>26</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="121"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -8489,142 +9469,156 @@
     </row>
     <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="115" t="s">
-        <v>27</v>
+      <c r="H7" s="124"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="122" t="s">
+        <v>25</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="115" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="115" t="s">
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="105">
+        <v>1</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107">
+        <v>43595</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
-        <v>43595</v>
-      </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109" t="s">
-        <v>23</v>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="115"/>
+    </row>
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>2</v>
       </c>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="106" t="s">
-        <v>24</v>
+      <c r="B9" s="100">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="108"/>
-    </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="88">
+        <v>43803</v>
+      </c>
       <c r="E9" s="89"/>
       <c r="F9" s="90"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="G9" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
@@ -8633,35 +9627,35 @@
       <c r="D10" s="88"/>
       <c r="E10" s="89"/>
       <c r="F10" s="90"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
@@ -8670,35 +9664,35 @@
       <c r="D11" s="88"/>
       <c r="E11" s="89"/>
       <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
@@ -8707,35 +9701,35 @@
       <c r="D12" s="88"/>
       <c r="E12" s="89"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
@@ -8744,35 +9738,35 @@
       <c r="D13" s="88"/>
       <c r="E13" s="89"/>
       <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
@@ -8781,35 +9775,35 @@
       <c r="D14" s="88"/>
       <c r="E14" s="89"/>
       <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
@@ -8818,35 +9812,35 @@
       <c r="D15" s="88"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
@@ -8855,35 +9849,35 @@
       <c r="D16" s="88"/>
       <c r="E16" s="89"/>
       <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
@@ -8892,35 +9886,35 @@
       <c r="D17" s="88"/>
       <c r="E17" s="89"/>
       <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
@@ -8929,35 +9923,35 @@
       <c r="D18" s="88"/>
       <c r="E18" s="89"/>
       <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
@@ -8966,35 +9960,35 @@
       <c r="D19" s="88"/>
       <c r="E19" s="89"/>
       <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
@@ -9003,35 +9997,35 @@
       <c r="D20" s="88"/>
       <c r="E20" s="89"/>
       <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
@@ -9040,35 +10034,35 @@
       <c r="D21" s="88"/>
       <c r="E21" s="89"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
@@ -9077,35 +10071,35 @@
       <c r="D22" s="88"/>
       <c r="E22" s="89"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
@@ -9114,35 +10108,35 @@
       <c r="D23" s="88"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
@@ -9151,35 +10145,35 @@
       <c r="D24" s="88"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
@@ -9188,35 +10182,35 @@
       <c r="D25" s="88"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
@@ -9225,35 +10219,35 @@
       <c r="D26" s="88"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
@@ -9262,35 +10256,35 @@
       <c r="D27" s="88"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
@@ -9299,35 +10293,35 @@
       <c r="D28" s="88"/>
       <c r="E28" s="89"/>
       <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
@@ -9336,35 +10330,35 @@
       <c r="D29" s="88"/>
       <c r="E29" s="89"/>
       <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
@@ -9373,35 +10367,35 @@
       <c r="D30" s="88"/>
       <c r="E30" s="89"/>
       <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
@@ -9410,35 +10404,35 @@
       <c r="D31" s="88"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
@@ -9447,35 +10441,35 @@
       <c r="D32" s="88"/>
       <c r="E32" s="89"/>
       <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
@@ -9484,35 +10478,35 @@
       <c r="D33" s="88"/>
       <c r="E33" s="89"/>
       <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -9696,7 +10690,7 @@
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9851,163 +10845,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="127" t="s">
-        <v>12</v>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="134" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="136" t="str">
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="149" t="s">
-        <v>13</v>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="156" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="149" t="s">
-        <v>14</v>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="156" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43803</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -10067,7 +11061,7 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -10128,7 +11122,7 @@
     <row r="7" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="B7" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -10204,7 +11198,7 @@
     <row r="9" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
       <c r="B9" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -11525,7 +12519,7 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11562,59 +12556,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="154" t="s">
-        <v>15</v>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="161" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -11628,54 +12622,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43803</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -11689,52 +12683,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -11804,7 +12798,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -12146,25 +13140,25 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -12180,7 +13174,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -12204,59 +13198,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="154" t="s">
-        <v>15</v>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="161" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -12270,54 +13264,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43803</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -12331,52 +13325,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -12446,7 +13440,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -12571,27 +13565,149 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="14"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="14"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="14"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="14"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="14"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="14"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="14"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="14"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="14"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="16"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="14"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4597D40C-4774-4514-A8D0-4A95CD15DFE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18540" windowHeight="12705" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -15,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -24,12 +25,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>PJ名</t>
   </si>
@@ -214,16 +223,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>プロジェクト照会取引追加</t>
     <rPh sb="6" eb="8">
       <t>ショウカイ</t>
@@ -236,11 +235,38 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>プロジェクト更新追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -1075,7 +1101,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1308,6 +1334,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1316,12 +1354,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1574,7 +1606,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -1590,10 +1622,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1601,6 +1633,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1623,7 +1658,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1638,7 +1679,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1722,7 +1769,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1822,7 +1875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1970,7 +2029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 270"/>
+        <xdr:cNvPr id="2" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2028,7 +2093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 271"/>
+        <xdr:cNvPr id="41" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2122,7 +2193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 274"/>
+        <xdr:cNvPr id="44" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2207,7 +2284,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="グループ化 62"/>
+        <xdr:cNvPr id="63" name="グループ化 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2220,7 +2303,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Rectangle 131"/>
+          <xdr:cNvPr id="64" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2285,7 +2374,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Rectangle 133"/>
+          <xdr:cNvPr id="65" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2312,7 +2407,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="Text Box 134"/>
+          <xdr:cNvPr id="66" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2400,7 +2501,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="67" name="グループ化 66"/>
+          <xdr:cNvPr id="67" name="グループ化 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2413,7 +2520,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="Line 137"/>
+            <xdr:cNvPr id="77" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -2440,7 +2553,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="Text Box 138"/>
+            <xdr:cNvPr id="78" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2510,7 +2629,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="Text Box 139"/>
+          <xdr:cNvPr id="68" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2652,7 +2777,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="Text Box 141"/>
+          <xdr:cNvPr id="69" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2738,7 +2869,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Oval 297"/>
+          <xdr:cNvPr id="70" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2767,7 +2904,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="Text Box 298"/>
+          <xdr:cNvPr id="71" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2831,7 +2974,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="AutoShape 304"/>
+          <xdr:cNvPr id="72" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2864,7 +3013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="Rectangle 305"/>
+          <xdr:cNvPr id="73" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2960,7 +3115,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="Text Box 311"/>
+          <xdr:cNvPr id="74" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3103,7 +3264,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="Rectangle 316"/>
+          <xdr:cNvPr id="75" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3169,7 +3336,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Text Box 317"/>
+          <xdr:cNvPr id="76" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3305,7 +3478,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="AutoShape 270"/>
+        <xdr:cNvPr id="87" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3363,7 +3542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 271"/>
+        <xdr:cNvPr id="88" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3457,7 +3642,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
           <a:endCxn id="92" idx="1"/>
@@ -3500,7 +3691,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="AutoShape 12"/>
+        <xdr:cNvPr id="96" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -3544,7 +3741,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Text Box 13"/>
+        <xdr:cNvPr id="102" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3621,7 +3824,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Text Box 13"/>
+        <xdr:cNvPr id="103" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3698,7 +3907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="AutoShape 270"/>
+        <xdr:cNvPr id="104" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3756,7 +3971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Rectangle 271"/>
+        <xdr:cNvPr id="105" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3850,7 +4071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Text Box 13"/>
+        <xdr:cNvPr id="112" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3927,7 +4154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 270"/>
+        <xdr:cNvPr id="116" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3985,7 +4218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rectangle 271"/>
+        <xdr:cNvPr id="117" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4079,7 +4318,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 119"/>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="2"/>
           <a:endCxn id="137" idx="0"/>
@@ -4124,7 +4369,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 122"/>
+        <xdr:cNvPr id="123" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="3"/>
           <a:endCxn id="108" idx="3"/>
@@ -4169,7 +4420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4191,7 +4448,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4219,7 +4475,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="Rectangle 274"/>
+        <xdr:cNvPr id="118" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4304,7 +4566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="カギ線コネクタ 142"/>
+        <xdr:cNvPr id="143" name="カギ線コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="118" idx="1"/>
           <a:endCxn id="44" idx="2"/>
@@ -4350,7 +4618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="Text Box 13"/>
+        <xdr:cNvPr id="147" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4427,7 +4701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Text Box 13"/>
+        <xdr:cNvPr id="148" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4504,7 +4784,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149"/>
+        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="153" idx="0"/>
           <a:endCxn id="151" idx="2"/>
@@ -4547,7 +4833,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4569,7 +4861,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4597,7 +4888,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4619,7 +4916,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4647,7 +4943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 274"/>
+        <xdr:cNvPr id="92" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4742,7 +5044,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 274"/>
+        <xdr:cNvPr id="108" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4827,7 +5135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Text Box 13"/>
+        <xdr:cNvPr id="157" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4909,7 +5223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4931,7 +5251,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4946,288 +5265,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>208722</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 270"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1589847" y="1073427"/>
-          <a:ext cx="7401753" cy="1455254"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>218245</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 271"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1875595" y="857250"/>
-          <a:ext cx="1886779" cy="242681"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA10201/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87795</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>87796</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2001078" y="1417983"/>
-          <a:ext cx="1093305" cy="563218"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020101</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="4791075"/>
-          <a:ext cx="4895850" cy="2143125"/>
+          <a:off x="4439892" y="7391814"/>
+          <a:ext cx="4846569" cy="2112065"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 131"/>
+          <xdr:cNvPr id="6" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5292,7 +5368,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 133"/>
+          <xdr:cNvPr id="7" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5319,7 +5401,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 134"/>
+          <xdr:cNvPr id="8" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5407,28 +5495,40 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6863292" y="8272534"/>
+            <a:off x="6863290" y="8272534"/>
             <a:ext cx="576460" cy="171233"/>
-            <a:chOff x="4124325" y="10129794"/>
-            <a:chExt cx="676275" cy="200025"/>
+            <a:chOff x="4124317" y="10129794"/>
+            <a:chExt cx="676274" cy="200025"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Line 137"/>
+            <xdr:cNvPr id="19" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipV="1">
-              <a:off x="4124325" y="10325100"/>
-              <a:ext cx="676275" cy="0"/>
+              <a:off x="4124317" y="10325100"/>
+              <a:ext cx="676274" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -5447,7 +5547,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Text Box 138"/>
+            <xdr:cNvPr id="20" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5517,7 +5623,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 139"/>
+          <xdr:cNvPr id="10" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5659,7 +5771,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 141"/>
+          <xdr:cNvPr id="11" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5745,7 +5863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Oval 297"/>
+          <xdr:cNvPr id="12" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5774,7 +5898,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Text Box 298"/>
+          <xdr:cNvPr id="13" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5838,7 +5968,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="AutoShape 304"/>
+          <xdr:cNvPr id="14" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5871,7 +6007,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 305"/>
+          <xdr:cNvPr id="15" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5967,7 +6109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Text Box 311"/>
+          <xdr:cNvPr id="16" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6110,7 +6258,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 316"/>
+          <xdr:cNvPr id="17" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6176,7 +6330,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Text Box 317"/>
+          <xdr:cNvPr id="18" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6299,1044 +6459,1192 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>87796</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="54" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D4AB5C-C55B-49E8-AB70-486212CCFD11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3126271" y="1728581"/>
-          <a:ext cx="1241976" cy="0"/>
+          <a:off x="326233" y="840685"/>
+          <a:ext cx="8572602" cy="1646583"/>
+          <a:chOff x="328074" y="836083"/>
+          <a:chExt cx="8629659" cy="1734931"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="AutoShape 270">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1584555" y="1062844"/>
+            <a:ext cx="7373178" cy="1508170"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="CCFFFF">
+              <a:alpha val="59999"/>
+            </a:srgbClr>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>86332</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>81935</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30807</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="2572357" y="1432575"/>
-          <a:ext cx="548053" cy="217482"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -13233"/>
-            <a:gd name="adj2" fmla="val 191460"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176484</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>84420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3214959" y="1192854"/>
-          <a:ext cx="1287467" cy="225066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+          <a:ln w="15875" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="33CCCC"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8476D4-5D38-4510-A00D-F52E76526E38}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="328074" y="836083"/>
+            <a:ext cx="8077669" cy="1461312"/>
+            <a:chOff x="328074" y="836083"/>
+            <a:chExt cx="8077669" cy="1461312"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle 271">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1869245" y="836083"/>
+              <a:ext cx="1879371" cy="253265"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA10201/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2013962" y="1442831"/>
+              <a:ext cx="1100667" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020101</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="4" idx="3"/>
+              <a:endCxn id="54" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3114629" y="1739164"/>
+              <a:ext cx="1237743" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>入力チェック失敗</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>255997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>254277</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3294472" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="24" name="AutoShape 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm rot="10800000">
+              <a:off x="2562832" y="1432575"/>
+              <a:ext cx="545936" cy="228065"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector4">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -13233"/>
+                <a:gd name="adj2" fmla="val 191460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3203317" y="1187562"/>
+              <a:ext cx="1282176" cy="230358"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>入力チェック失敗</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3282830" y="1529451"/>
+              <a:ext cx="1374114" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>入力チェック</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>OK</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Oval 293">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="328074" y="1680518"/>
+              <a:ext cx="117716" cy="121663"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="9525" algn="ctr">
               <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="AutoShape 294">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+              <a:stCxn id="46" idx="6"/>
+              <a:endCxn id="4" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="445790" y="1738704"/>
+              <a:ext cx="1568172" cy="460"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4352372" y="1442831"/>
+              <a:ext cx="1301704" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録確認</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020101</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="54" idx="3"/>
+              <a:endCxn id="69" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5654076" y="1739164"/>
+              <a:ext cx="1449963" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>入力チェック</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6034497" y="1529451"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>登録成功</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7104039" y="1442831"/>
+              <a:ext cx="1301704" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52907</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>170623</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>24181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Oval 293"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="329132" y="1669935"/>
-          <a:ext cx="117716" cy="116371"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln w="9525" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>170623</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87795</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="AutoShape 294"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="46" idx="6"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="446848" y="1728121"/>
-          <a:ext cx="1574522" cy="460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4368247" y="1442831"/>
-          <a:ext cx="1306996" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録確認</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020101</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-          <a:endCxn id="69" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5675243" y="1728581"/>
-          <a:ext cx="1455254" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>255997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>254277</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6056722" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録完了</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020103</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm flipH="1">
+              <a:off x="3110901" y="1896856"/>
+              <a:ext cx="1207099" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>登録成功</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7130497" y="1442831"/>
-          <a:ext cx="1306996" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3443697" y="1926326"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>登録失敗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>戻る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="454964" y="1529451"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="170" name="AutoShape 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+              <a:stCxn id="69" idx="2"/>
+              <a:endCxn id="173" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="5345779" y="-373084"/>
+              <a:ext cx="7041" cy="4810124"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -3246698"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録完了</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020103</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84068</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118856</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3122543" y="1880981"/>
-          <a:ext cx="1211332" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141697</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139977</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3456397" y="1905159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>登録失敗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179797</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>178077</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="456022" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>192571</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="AutoShape 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="173" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5365887" y="-403776"/>
-          <a:ext cx="7041" cy="4829174"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3246698"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>217897</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>216177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6571072" y="2038509"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>完了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="175" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6546730" y="2059676"/>
+              <a:ext cx="1374114" cy="237719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>完了</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7354,7 +7662,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7376,7 +7690,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -7404,7 +7717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="AutoShape 270"/>
+        <xdr:cNvPr id="38" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7462,7 +7781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 271"/>
+        <xdr:cNvPr id="39" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7556,7 +7881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 274"/>
+        <xdr:cNvPr id="40" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7659,7 +7990,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="AutoShape 12"/>
+        <xdr:cNvPr id="42" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -7703,7 +8040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Text Box 13"/>
+        <xdr:cNvPr id="43" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7780,7 +8123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Oval 293"/>
+        <xdr:cNvPr id="45" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7834,7 +8183,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 294"/>
+        <xdr:cNvPr id="48" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="45" idx="6"/>
@@ -7878,7 +8233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Text Box 13"/>
+        <xdr:cNvPr id="56" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7955,7 +8316,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -7995,7 +8362,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Text Box 13"/>
+        <xdr:cNvPr id="50" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8072,7 +8445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 274"/>
+        <xdr:cNvPr id="51" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8157,7 +8536,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -8197,7 +8582,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Text Box 13"/>
+        <xdr:cNvPr id="53" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8265,6 +8656,1266 @@
             </a:rPr>
             <a:t>戻る</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109330</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="グループ化 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E0D11B-2728-42C0-ACCC-489883719C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="379160" y="3923885"/>
+          <a:ext cx="8502742" cy="2703858"/>
+          <a:chOff x="380378" y="4042034"/>
+          <a:chExt cx="8540501" cy="2796428"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="55" name="グループ化 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C01DA5-67D4-41E3-B486-2B8118149B05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="392206" y="5130924"/>
+            <a:ext cx="8528673" cy="1707538"/>
+            <a:chOff x="409680" y="836083"/>
+            <a:chExt cx="8548053" cy="1734931"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="AutoShape 270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF573B4F-543C-49D6-A843-BD5EA4986490}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1584555" y="1062844"/>
+              <a:ext cx="7373178" cy="1508170"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF">
+                <a:alpha val="59999"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="33CCCC"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="58" name="グループ化 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197BD3EF-34AE-4E65-8C69-4E3DC77754CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="409680" y="836083"/>
+              <a:ext cx="7996063" cy="1322670"/>
+              <a:chOff x="409680" y="836083"/>
+              <a:chExt cx="7996063" cy="1322670"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="59" name="Rectangle 271">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CA0B65-171C-4BD1-9E1A-8364F5DA875F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1869245" y="836083"/>
+                <a:ext cx="1879371" cy="253265"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA10203/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="60" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22447AD-80DB-40EE-A2E3-C2A4B9D71686}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="2013962" y="1442831"/>
+                <a:ext cx="1100667" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020301</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A06A728-9106-4236-B298-BFDCDD336F69}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="60" idx="3"/>
+                <a:endCxn id="70" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3114629" y="1739164"/>
+                <a:ext cx="1237743" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="62" name="AutoShape 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B361D66-E3B6-4294-8292-61B8874A56AA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm rot="10800000">
+                <a:off x="2562832" y="1432575"/>
+                <a:ext cx="545936" cy="228065"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector4">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val -13233"/>
+                  <a:gd name="adj2" fmla="val 191460"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="63" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066E6966-5402-4BF4-95F9-85C902BE925A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3203317" y="1187562"/>
+                <a:ext cx="1282176" cy="230358"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>入力チェック失敗</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="64" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F6E887-2411-40A9-88EF-69F01F2CA3EA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3282830" y="1529451"/>
+                <a:ext cx="1374114" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>入力チェック</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>OK</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="66" name="AutoShape 294">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744882F6-4CD3-4571-9319-9B6092EBE1B7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+                <a:endCxn id="60" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="409680" y="1739164"/>
+                <a:ext cx="1604282" cy="1"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="70" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C183C0-AD7D-468D-9E77-61B46433ACD2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4352372" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新確認</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020301</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2D5182-B0BD-4B3E-AA43-E04D3358B28C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="70" idx="3"/>
+                <a:endCxn id="74" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5654076" y="1739164"/>
+                <a:ext cx="1449963" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="73" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CF822-9464-4E29-8A5C-AA9255DEABD7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="6034497" y="1529451"/>
+                <a:ext cx="1374113" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>更新成功</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="74" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D309F828-3BC5-4158-91A1-8F7519E3771C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="7104039" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新完了</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020303</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ABBD6D-B463-4485-AA37-BB66EFEEB21D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm flipH="1">
+                <a:off x="3110901" y="1896856"/>
+                <a:ext cx="1207099" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="77" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33D3C8-E885-449F-8128-735AFA58276D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3443697" y="1926326"/>
+                <a:ext cx="1374113" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>更新</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>失敗</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>戻る</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="106" name="直線コネクタ 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5A9BAF-1F94-4194-8C5C-F6DA256BD2A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="51" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="5400000">
+            <a:off x="2340877" y="2081535"/>
+            <a:ext cx="899136" cy="4820133"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="0" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="直線コネクタ 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4776BC89-B03B-4CFB-9917-09DE2DDFBC85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="386890" y="4938825"/>
+            <a:ext cx="0" cy="1084337"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12382</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1573ED2A-ED09-4EEC-98CC-476061DCC6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="380378" y="4042034"/>
+          <a:ext cx="1279269" cy="226721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>入力チェック失敗</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC55E71-562A-4AE5-B64E-0A7B41977553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="812426" y="5793441"/>
+          <a:ext cx="694765" cy="226721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8618,7 +10269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8668,7 +10319,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8682,7 +10333,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43803</v>
+        <v>43895</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
@@ -9268,7 +10919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9284,57 +10935,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="134" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="143" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="125" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="119">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -9342,53 +10993,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="125" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43803</v>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -9396,45 +11047,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9471,123 +11122,123 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="88">
         <v>43803</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="90"/>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="106" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="93"/>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="102" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="95"/>
@@ -9596,8 +11247,8 @@
       <c r="N9" s="95"/>
       <c r="O9" s="95"/>
       <c r="P9" s="96"/>
-      <c r="Q9" s="104" t="s">
-        <v>35</v>
+      <c r="Q9" s="103" t="s">
+        <v>34</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -9613,7 +11264,7 @@
       <c r="AC9" s="98"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
-      <c r="AF9" s="103" t="s">
+      <c r="AF9" s="102" t="s">
         <v>33</v>
       </c>
       <c r="AG9" s="95"/>
@@ -9621,23 +11272,35 @@
       <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
+      <c r="D10" s="88">
+        <v>43895</v>
+      </c>
       <c r="E10" s="89"/>
       <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="G10" s="101" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="92"/>
       <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
+      <c r="J10" s="102" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
       <c r="M10" s="95"/>
       <c r="N10" s="95"/>
       <c r="O10" s="95"/>
       <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
+      <c r="Q10" s="103" t="s">
+        <v>35</v>
+      </c>
       <c r="R10" s="98"/>
       <c r="S10" s="98"/>
       <c r="T10" s="98"/>
@@ -9652,7 +11315,9 @@
       <c r="AC10" s="98"/>
       <c r="AD10" s="98"/>
       <c r="AE10" s="99"/>
-      <c r="AF10" s="94"/>
+      <c r="AF10" s="102" t="s">
+        <v>22</v>
+      </c>
       <c r="AG10" s="95"/>
       <c r="AH10" s="95"/>
       <c r="AI10" s="96"/>
@@ -10699,7 +12364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10845,163 +12510,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="134" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="143" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="156" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="156" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43803</v>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12528,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12556,59 +14221,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="125" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -12622,54 +14287,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="125" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43803</v>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -12683,52 +14348,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -13170,13 +14835,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -13198,59 +14863,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="125" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -13264,54 +14929,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="125" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43803</v>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -13325,52 +14990,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4597D40C-4774-4514-A8D0-4A95CD15DFE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18540" windowHeight="12705" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -15,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -24,12 +25,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>PJ名</t>
   </si>
@@ -44,14 +53,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -61,21 +70,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -85,24 +94,14 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -115,53 +114,49 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>画面遷移図</t>
@@ -171,7 +166,7 @@
     <rPh sb="2" eb="5">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -184,42 +179,99 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2. プロジェクト管理(A102)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会取引追加</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot;版&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -232,12 +284,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -474,6 +520,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -916,25 +968,43 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,113 +1013,95 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1061,8 +1113,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,32 +1154,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,34 +1189,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1179,19 +1231,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1237,27 +1289,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1276,10 +1334,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,31 +1523,31 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,7 +1606,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -1543,10 +1622,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1554,6 +1633,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1576,14 +1658,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -1591,7 +1679,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1675,7 +1769,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1775,7 +1875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1923,7 +2029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 270"/>
+        <xdr:cNvPr id="2" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1981,7 +2093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 271"/>
+        <xdr:cNvPr id="41" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2075,7 +2193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 274"/>
+        <xdr:cNvPr id="44" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2160,7 +2284,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="グループ化 62"/>
+        <xdr:cNvPr id="63" name="グループ化 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2173,7 +2303,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Rectangle 131"/>
+          <xdr:cNvPr id="64" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2238,7 +2374,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="Rectangle 133"/>
+          <xdr:cNvPr id="65" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2265,7 +2407,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="Text Box 134"/>
+          <xdr:cNvPr id="66" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2353,7 +2501,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="67" name="グループ化 66"/>
+          <xdr:cNvPr id="67" name="グループ化 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2366,7 +2520,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="Line 137"/>
+            <xdr:cNvPr id="77" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -2393,7 +2553,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="Text Box 138"/>
+            <xdr:cNvPr id="78" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2463,7 +2629,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="Text Box 139"/>
+          <xdr:cNvPr id="68" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2605,7 +2777,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="Text Box 141"/>
+          <xdr:cNvPr id="69" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2691,7 +2869,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Oval 297"/>
+          <xdr:cNvPr id="70" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2720,7 +2904,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="Text Box 298"/>
+          <xdr:cNvPr id="71" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2784,7 +2974,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="AutoShape 304"/>
+          <xdr:cNvPr id="72" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2817,7 +3013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="Rectangle 305"/>
+          <xdr:cNvPr id="73" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2913,7 +3115,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="Text Box 311"/>
+          <xdr:cNvPr id="74" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3056,7 +3264,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="Rectangle 316"/>
+          <xdr:cNvPr id="75" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3122,7 +3336,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Text Box 317"/>
+          <xdr:cNvPr id="76" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3258,7 +3478,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="AutoShape 270"/>
+        <xdr:cNvPr id="87" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3316,7 +3542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 271"/>
+        <xdr:cNvPr id="88" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3410,7 +3642,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
           <a:endCxn id="92" idx="1"/>
@@ -3453,7 +3691,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="AutoShape 12"/>
+        <xdr:cNvPr id="96" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -3497,7 +3741,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Text Box 13"/>
+        <xdr:cNvPr id="102" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3574,7 +3824,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Text Box 13"/>
+        <xdr:cNvPr id="103" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3651,7 +3907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="AutoShape 270"/>
+        <xdr:cNvPr id="104" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3709,7 +3971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Rectangle 271"/>
+        <xdr:cNvPr id="105" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3803,7 +4071,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Text Box 13"/>
+        <xdr:cNvPr id="112" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3880,7 +4154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 270"/>
+        <xdr:cNvPr id="116" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3938,7 +4218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rectangle 271"/>
+        <xdr:cNvPr id="117" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4032,7 +4318,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 119"/>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="2"/>
           <a:endCxn id="137" idx="0"/>
@@ -4077,7 +4369,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 122"/>
+        <xdr:cNvPr id="123" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="3"/>
           <a:endCxn id="108" idx="3"/>
@@ -4122,7 +4420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4144,7 +4448,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4172,7 +4475,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="Rectangle 274"/>
+        <xdr:cNvPr id="118" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4257,7 +4566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="カギ線コネクタ 142"/>
+        <xdr:cNvPr id="143" name="カギ線コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="118" idx="1"/>
           <a:endCxn id="44" idx="2"/>
@@ -4303,7 +4618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="Text Box 13"/>
+        <xdr:cNvPr id="147" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4380,7 +4701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Text Box 13"/>
+        <xdr:cNvPr id="148" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4457,7 +4784,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149"/>
+        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="153" idx="0"/>
           <a:endCxn id="151" idx="2"/>
@@ -4500,7 +4833,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4522,7 +4861,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4550,7 +4888,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4572,7 +4916,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4600,7 +4943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 274"/>
+        <xdr:cNvPr id="92" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4695,7 +5044,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 274"/>
+        <xdr:cNvPr id="108" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4780,7 +5135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Text Box 13"/>
+        <xdr:cNvPr id="157" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4862,7 +5223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4884,7 +5251,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
@@ -4899,288 +5265,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>208722</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 270"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1589847" y="1073427"/>
-          <a:ext cx="7401753" cy="1455254"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>218245</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 271"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1875595" y="857250"/>
-          <a:ext cx="1886779" cy="242681"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA10201/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87795</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>87796</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2001078" y="1417983"/>
-          <a:ext cx="1093305" cy="563218"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020101</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="2790825"/>
-          <a:ext cx="4895850" cy="2143125"/>
+          <a:off x="4439892" y="7391814"/>
+          <a:ext cx="4846569" cy="2112065"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 131"/>
+          <xdr:cNvPr id="6" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5245,7 +5368,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 133"/>
+          <xdr:cNvPr id="7" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5272,7 +5401,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 134"/>
+          <xdr:cNvPr id="8" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5360,28 +5495,40 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6863292" y="8272534"/>
+            <a:off x="6863290" y="8272534"/>
             <a:ext cx="576460" cy="171233"/>
-            <a:chOff x="4124325" y="10129794"/>
-            <a:chExt cx="676275" cy="200025"/>
+            <a:chOff x="4124317" y="10129794"/>
+            <a:chExt cx="676274" cy="200025"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Line 137"/>
+            <xdr:cNvPr id="19" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipV="1">
-              <a:off x="4124325" y="10325100"/>
-              <a:ext cx="676275" cy="0"/>
+              <a:off x="4124317" y="10325100"/>
+              <a:ext cx="676274" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -5400,7 +5547,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Text Box 138"/>
+            <xdr:cNvPr id="20" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5470,7 +5623,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 139"/>
+          <xdr:cNvPr id="10" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5612,7 +5771,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 141"/>
+          <xdr:cNvPr id="11" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5698,7 +5863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Oval 297"/>
+          <xdr:cNvPr id="12" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5727,7 +5898,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Text Box 298"/>
+          <xdr:cNvPr id="13" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5791,7 +5968,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="AutoShape 304"/>
+          <xdr:cNvPr id="14" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5824,7 +6007,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 305"/>
+          <xdr:cNvPr id="15" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5920,7 +6109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Text Box 311"/>
+          <xdr:cNvPr id="16" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6063,7 +6258,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 316"/>
+          <xdr:cNvPr id="17" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6129,7 +6330,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Text Box 317"/>
+          <xdr:cNvPr id="18" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6252,63 +6459,1544 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D4AB5C-C55B-49E8-AB70-486212CCFD11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="326233" y="840685"/>
+          <a:ext cx="8572602" cy="1646583"/>
+          <a:chOff x="328074" y="836083"/>
+          <a:chExt cx="8629659" cy="1734931"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="AutoShape 270">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1584555" y="1062844"/>
+            <a:ext cx="7373178" cy="1508170"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CCFFFF">
+              <a:alpha val="59999"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="15875" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="33CCCC"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8476D4-5D38-4510-A00D-F52E76526E38}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="328074" y="836083"/>
+            <a:ext cx="8077669" cy="1461312"/>
+            <a:chOff x="328074" y="836083"/>
+            <a:chExt cx="8077669" cy="1461312"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle 271">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1869245" y="836083"/>
+              <a:ext cx="1879371" cy="253265"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA10201/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2013962" y="1442831"/>
+              <a:ext cx="1100667" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020101</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="4" idx="3"/>
+              <a:endCxn id="54" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3114629" y="1739164"/>
+              <a:ext cx="1237743" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="24" name="AutoShape 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm rot="10800000">
+              <a:off x="2562832" y="1432575"/>
+              <a:ext cx="545936" cy="228065"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector4">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -13233"/>
+                <a:gd name="adj2" fmla="val 191460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3203317" y="1187562"/>
+              <a:ext cx="1282176" cy="230358"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>入力チェック失敗</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3282830" y="1529451"/>
+              <a:ext cx="1374114" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>入力チェック</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>OK</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Oval 293">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="328074" y="1680518"/>
+              <a:ext cx="117716" cy="121663"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="AutoShape 294">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+              <a:stCxn id="46" idx="6"/>
+              <a:endCxn id="4" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="445790" y="1738704"/>
+              <a:ext cx="1568172" cy="460"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4352372" y="1442831"/>
+              <a:ext cx="1301704" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録確認</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020101</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="54" idx="3"/>
+              <a:endCxn id="69" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5654076" y="1739164"/>
+              <a:ext cx="1449963" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6034497" y="1529451"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>登録成功</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Rectangle 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7104039" y="1442831"/>
+              <a:ext cx="1301704" cy="592667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録完了</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>【</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>WA1020103</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>】</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm flipH="1">
+              <a:off x="3110901" y="1896856"/>
+              <a:ext cx="1207099" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3443697" y="1926326"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>登録失敗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>戻る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="454964" y="1529451"/>
+              <a:ext cx="1374113" cy="232427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>プロジェクト登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="170" name="AutoShape 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeShapeType="1"/>
+              <a:stCxn id="69" idx="2"/>
+              <a:endCxn id="173" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="5345779" y="-373084"/>
+              <a:ext cx="7041" cy="4810124"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -3246698"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="175" name="Text Box 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6546730" y="2059676"/>
+              <a:ext cx="1374114" cy="237719"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a:solidFill>
+                    <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPts val="1100"/>
+                </a:lnSpc>
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>完了</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>87796</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>61292</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2809875" y="1800225"/>
+          <a:ext cx="289892" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180147</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1561272" y="3035577"/>
+          <a:ext cx="4858578" cy="1455254"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218245</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1875595" y="857250"/>
+          <a:ext cx="1886779" cy="242681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10202/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト照会</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87795</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>109331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87796</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>109331</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="54" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3126271" y="1728581"/>
-          <a:ext cx="1241976" cy="0"/>
+          <a:off x="2021370" y="1442831"/>
+          <a:ext cx="1104901" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>86332</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>99075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81935</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30807</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 12"/>
+        <xdr:cNvPr id="42" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -6341,18 +8029,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>176484</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>2229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>84420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 13"/>
+        <xdr:cNvPr id="43" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6361,6 +8055,1729 @@
         <a:xfrm>
           <a:off x="3214959" y="1192854"/>
           <a:ext cx="1287467" cy="225066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="329132" y="1669935"/>
+          <a:ext cx="117716" cy="116371"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170623</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="45" idx="6"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="446848" y="1728121"/>
+          <a:ext cx="1574522" cy="460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179797</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178077</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="456022" y="1524159"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87796</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158197</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3126271" y="3728831"/>
+          <a:ext cx="1451526" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255997</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254277</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3294472" y="3495834"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト名リンク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158197</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84068</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4577797" y="3414506"/>
+          <a:ext cx="1306996" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト詳細【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020202</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84068</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3122543" y="3848100"/>
+          <a:ext cx="1458982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141697</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139977</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3456397" y="3876834"/>
+          <a:ext cx="1379405" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109330</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="グループ化 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E0D11B-2728-42C0-ACCC-489883719C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="379160" y="3923885"/>
+          <a:ext cx="8502742" cy="2703858"/>
+          <a:chOff x="380378" y="4042034"/>
+          <a:chExt cx="8540501" cy="2796428"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="55" name="グループ化 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C01DA5-67D4-41E3-B486-2B8118149B05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="392206" y="5130924"/>
+            <a:ext cx="8528673" cy="1707538"/>
+            <a:chOff x="409680" y="836083"/>
+            <a:chExt cx="8548053" cy="1734931"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="AutoShape 270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF573B4F-543C-49D6-A843-BD5EA4986490}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1584555" y="1062844"/>
+              <a:ext cx="7373178" cy="1508170"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF">
+                <a:alpha val="59999"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="33CCCC"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="58" name="グループ化 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197BD3EF-34AE-4E65-8C69-4E3DC77754CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="409680" y="836083"/>
+              <a:ext cx="7996063" cy="1322670"/>
+              <a:chOff x="409680" y="836083"/>
+              <a:chExt cx="7996063" cy="1322670"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="59" name="Rectangle 271">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CA0B65-171C-4BD1-9E1A-8364F5DA875F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1869245" y="836083"/>
+                <a:ext cx="1879371" cy="253265"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA10203/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="60" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22447AD-80DB-40EE-A2E3-C2A4B9D71686}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="2013962" y="1442831"/>
+                <a:ext cx="1100667" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020301</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A06A728-9106-4236-B298-BFDCDD336F69}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="60" idx="3"/>
+                <a:endCxn id="70" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3114629" y="1739164"/>
+                <a:ext cx="1237743" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="62" name="AutoShape 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B361D66-E3B6-4294-8292-61B8874A56AA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm rot="10800000">
+                <a:off x="2562832" y="1432575"/>
+                <a:ext cx="545936" cy="228065"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector4">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val -13233"/>
+                  <a:gd name="adj2" fmla="val 191460"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="63" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066E6966-5402-4BF4-95F9-85C902BE925A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3203317" y="1187562"/>
+                <a:ext cx="1282176" cy="230358"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>入力チェック失敗</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="64" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F6E887-2411-40A9-88EF-69F01F2CA3EA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3282830" y="1529451"/>
+                <a:ext cx="1374114" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>入力チェック</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>OK</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="66" name="AutoShape 294">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744882F6-4CD3-4571-9319-9B6092EBE1B7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+                <a:endCxn id="60" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="409680" y="1739164"/>
+                <a:ext cx="1604282" cy="1"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="70" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C183C0-AD7D-468D-9E77-61B46433ACD2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4352372" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新確認</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020301</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2D5182-B0BD-4B3E-AA43-E04D3358B28C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="70" idx="3"/>
+                <a:endCxn id="74" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5654076" y="1739164"/>
+                <a:ext cx="1449963" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="73" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CF822-9464-4E29-8A5C-AA9255DEABD7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="6034497" y="1529451"/>
+                <a:ext cx="1374113" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>更新成功</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="74" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D309F828-3BC5-4158-91A1-8F7519E3771C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="7104039" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新完了</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>【</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>WA1020303</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>】</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ABBD6D-B463-4485-AA37-BB66EFEEB21D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm flipH="1">
+                <a:off x="3110901" y="1896856"/>
+                <a:ext cx="1207099" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="77" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33D3C8-E885-449F-8128-735AFA58276D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3443697" y="1926326"/>
+                <a:ext cx="1374113" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>更新</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>失敗</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ 明朝"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                  </a:rPr>
+                  <a:t>戻る</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="106" name="直線コネクタ 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5A9BAF-1F94-4194-8C5C-F6DA256BD2A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="51" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="5400000">
+            <a:off x="2340877" y="2081535"/>
+            <a:ext cx="899136" cy="4820133"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="0" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="直線コネクタ 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4776BC89-B03B-4CFB-9917-09DE2DDFBC85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="386890" y="4938825"/>
+            <a:ext cx="0" cy="1084337"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12382</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1573ED2A-ED09-4EEC-98CC-476061DCC6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="380378" y="4042034"/>
+          <a:ext cx="1279269" cy="226721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6416,28 +9833,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>255997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>254277</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 13"/>
+        <xdr:cNvPr id="131" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC55E71-562A-4AE5-B64E-0A7B41977553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3294472" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
+          <a:off x="812426" y="5793441"/>
+          <a:ext cx="694765" cy="226721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6484,187 +9907,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>入力チェック</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52907</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>170623</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>24181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Oval 293"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="329132" y="1669935"/>
-          <a:ext cx="117716" cy="116371"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln w="9525" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>170623</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87795</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="AutoShape 294"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="46" idx="6"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="446848" y="1728121"/>
-          <a:ext cx="1574522" cy="460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4368247" y="1442831"/>
-          <a:ext cx="1306996" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録確認</a:t>
+            <a:t>更新</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -6673,620 +9916,6 @@
             <a:latin typeface="ＭＳ 明朝"/>
             <a:ea typeface="ＭＳ 明朝"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020101</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-          <a:endCxn id="69" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5675243" y="1728581"/>
-          <a:ext cx="1455254" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>255997</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>254277</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6056722" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>登録成功</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>224872</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>150743</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rectangle 274"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7130497" y="1442831"/>
-          <a:ext cx="1306996" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録完了</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1020103</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84068</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118856</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3122543" y="1880981"/>
-          <a:ext cx="1211332" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141697</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139977</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3456397" y="1905159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>登録失敗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179797</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>178077</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="456022" y="1524159"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>192571</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="AutoShape 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="173" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5365887" y="-403776"/>
-          <a:ext cx="7041" cy="4829174"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3246698"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>217897</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>216177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6571072" y="2038509"/>
-          <a:ext cx="1379405" cy="227136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>完了</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7640,7 +10269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7650,7 +10279,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="9" width="8.83203125" style="24"/>
+    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,7 +10319,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7702,7 +10333,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43595</v>
+        <v>43895</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
@@ -8278,17 +10909,17 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8304,57 +10935,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
-        <v>17</v>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
+        <v>11</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="127" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="112">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8362,53 +10993,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
-        <v>18</v>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
+        <v>17</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="118" t="s">
-        <v>14</v>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="112" t="str">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8416,45 +11047,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="148" t="s">
-        <v>28</v>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
+        <v>26</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -8489,179 +11120,207 @@
     </row>
     <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="115" t="s">
-        <v>27</v>
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
+        <v>25</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="115" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="115" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="107">
+        <v>1</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
+        <v>43595</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
-        <v>43595</v>
-      </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109" t="s">
-        <v>23</v>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
+    </row>
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>2</v>
       </c>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="106" t="s">
-        <v>24</v>
+      <c r="B9" s="104">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="108"/>
-    </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
+        <v>43803</v>
+      </c>
       <c r="E9" s="89"/>
       <c r="F9" s="90"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="G9" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
+      <c r="D10" s="88">
+        <v>43895</v>
+      </c>
       <c r="E10" s="89"/>
       <c r="F10" s="90"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
+      <c r="G10" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
@@ -8670,35 +11329,35 @@
       <c r="D11" s="88"/>
       <c r="E11" s="89"/>
       <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
@@ -8707,35 +11366,35 @@
       <c r="D12" s="88"/>
       <c r="E12" s="89"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
@@ -8744,35 +11403,35 @@
       <c r="D13" s="88"/>
       <c r="E13" s="89"/>
       <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
@@ -8781,35 +11440,35 @@
       <c r="D14" s="88"/>
       <c r="E14" s="89"/>
       <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
@@ -8818,35 +11477,35 @@
       <c r="D15" s="88"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
@@ -8855,35 +11514,35 @@
       <c r="D16" s="88"/>
       <c r="E16" s="89"/>
       <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
@@ -8892,35 +11551,35 @@
       <c r="D17" s="88"/>
       <c r="E17" s="89"/>
       <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
@@ -8929,35 +11588,35 @@
       <c r="D18" s="88"/>
       <c r="E18" s="89"/>
       <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
@@ -8966,35 +11625,35 @@
       <c r="D19" s="88"/>
       <c r="E19" s="89"/>
       <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
@@ -9003,35 +11662,35 @@
       <c r="D20" s="88"/>
       <c r="E20" s="89"/>
       <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
@@ -9040,35 +11699,35 @@
       <c r="D21" s="88"/>
       <c r="E21" s="89"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
@@ -9077,35 +11736,35 @@
       <c r="D22" s="88"/>
       <c r="E22" s="89"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
@@ -9114,35 +11773,35 @@
       <c r="D23" s="88"/>
       <c r="E23" s="89"/>
       <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
@@ -9151,35 +11810,35 @@
       <c r="D24" s="88"/>
       <c r="E24" s="89"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
@@ -9188,35 +11847,35 @@
       <c r="D25" s="88"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
@@ -9225,35 +11884,35 @@
       <c r="D26" s="88"/>
       <c r="E26" s="89"/>
       <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
@@ -9262,35 +11921,35 @@
       <c r="D27" s="88"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
@@ -9299,35 +11958,35 @@
       <c r="D28" s="88"/>
       <c r="E28" s="89"/>
       <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
@@ -9336,35 +11995,35 @@
       <c r="D29" s="88"/>
       <c r="E29" s="89"/>
       <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
@@ -9373,35 +12032,35 @@
       <c r="D30" s="88"/>
       <c r="E30" s="89"/>
       <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
@@ -9410,35 +12069,35 @@
       <c r="D31" s="88"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
@@ -9447,35 +12106,35 @@
       <c r="D32" s="88"/>
       <c r="E32" s="89"/>
       <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
@@ -9484,35 +12143,35 @@
       <c r="D33" s="88"/>
       <c r="E33" s="89"/>
       <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -9696,7 +12355,7 @@
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9705,7 +12364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9851,163 +12510,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="127" t="s">
-        <v>12</v>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="136" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="149" t="s">
-        <v>13</v>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="149" t="s">
-        <v>14</v>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -10067,7 +12726,7 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -10128,7 +12787,7 @@
     <row r="7" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="B7" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -10204,7 +12863,7 @@
     <row r="9" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
       <c r="B9" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -11525,7 +14184,7 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11534,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11562,59 +14221,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="154" t="s">
-        <v>15</v>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="163" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -11628,54 +14287,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -11689,52 +14348,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -11804,7 +14463,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -12146,25 +14805,25 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -12176,13 +14835,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -12204,59 +14863,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="154" t="s">
-        <v>15</v>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="163" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -12270,54 +14929,54 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43895</v>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -12331,52 +14990,52 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -12446,7 +15105,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -12571,27 +15230,149 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="14"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="14"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="14"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="14"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="14"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="14"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="14"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="14"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="14"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="16"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="14"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4597D40C-4774-4514-A8D0-4A95CD15DFE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FDE428-C6CA-4655-A329-8E7902ED4944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1292,236 +1294,236 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1671,8 +1673,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8382000" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8953500" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2295,8 +2297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5191125"/>
-          <a:ext cx="4895850" cy="2143125"/>
+          <a:off x="4754880" y="5013960"/>
+          <a:ext cx="5252085" cy="2057400"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -5289,8 +5291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4439892" y="7391814"/>
-          <a:ext cx="4846569" cy="2112065"/>
+          <a:off x="4837458" y="7330523"/>
+          <a:ext cx="5268981" cy="2087217"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -6483,8 +6485,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="326233" y="840685"/>
-          <a:ext cx="8572602" cy="1646583"/>
+          <a:off x="351081" y="857250"/>
+          <a:ext cx="9342884" cy="1626705"/>
           <a:chOff x="328074" y="836083"/>
           <a:chExt cx="8629659" cy="1734931"/>
         </a:xfrm>
@@ -7859,7 +7861,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト照会</a:t>
+            <a:t>プロジェクト検索</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8687,8 +8689,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="379160" y="3923885"/>
-          <a:ext cx="8502742" cy="2703858"/>
+          <a:off x="404008" y="3904007"/>
+          <a:ext cx="9273024" cy="2672384"/>
           <a:chOff x="380378" y="4042034"/>
           <a:chExt cx="8540501" cy="2796428"/>
         </a:xfrm>
@@ -10277,44 +10279,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="24"/>
-    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="9" width="8.875" style="24"/>
+    <col min="10" max="10" width="16.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -10322,12 +10324,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -10338,42 +10340,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="29"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="28"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="28"/>
       <c r="G31" s="30"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
       <c r="H32" s="28"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="28"/>
       <c r="H33" s="28"/>
       <c r="J33" s="32"/>
@@ -10383,7 +10385,7 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="28"/>
       <c r="H34" s="28"/>
       <c r="J34" s="31"/>
@@ -10396,515 +10398,515 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="36"/>
       <c r="P36" s="35"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="35"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -10912,7 +10914,7 @@
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10929,63 +10931,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -10993,53 +10995,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11047,45 +11049,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11122,1059 +11124,1215 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="137">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="138"/>
+      <c r="D8" s="139">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="152"/>
+      <c r="D10" s="125">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="154"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="154"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="154"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="154"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="154"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="154"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="154"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="154"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="154"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="154"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12198,162 +12356,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12374,299 +12376,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="54" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="54" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="43"/>
-    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="43"/>
-    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="43"/>
-    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="43"/>
-    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="43"/>
-    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="43"/>
-    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="43"/>
-    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="43"/>
-    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="43"/>
-    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="43"/>
-    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="43"/>
-    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="43"/>
-    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="43"/>
-    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="43"/>
-    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="43"/>
-    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="43"/>
-    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="43"/>
-    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="43"/>
-    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="43"/>
-    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="43"/>
-    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="43"/>
-    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="43"/>
-    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="43"/>
-    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="43"/>
-    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="43"/>
-    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="43"/>
-    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="43"/>
-    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="43"/>
-    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="43"/>
-    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="43"/>
-    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="43"/>
-    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="43"/>
-    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="43"/>
-    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="43"/>
-    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="43"/>
-    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="43"/>
-    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="43"/>
-    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="43"/>
-    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="43"/>
-    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="43"/>
-    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="43"/>
-    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="43"/>
-    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="43"/>
-    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="43"/>
-    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="43"/>
-    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="43"/>
-    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="43"/>
-    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="43"/>
-    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="43"/>
-    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="43"/>
-    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="43"/>
-    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="43"/>
-    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="43"/>
-    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="43"/>
-    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="43"/>
-    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="43"/>
-    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="43"/>
-    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="43"/>
-    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="43"/>
-    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="43"/>
-    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="43"/>
-    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="43"/>
-    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="43"/>
-    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="43"/>
+    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="54" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="54" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="43"/>
+    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="43"/>
+    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="43"/>
+    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="43"/>
+    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="43"/>
+    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="43"/>
+    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="43"/>
+    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="43"/>
+    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="43"/>
+    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="43"/>
+    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="43"/>
+    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="43"/>
+    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="43"/>
+    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="43"/>
+    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="43"/>
+    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="43"/>
+    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="43"/>
+    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="43"/>
+    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="43"/>
+    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="43"/>
+    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="43"/>
+    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="43"/>
+    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="43"/>
+    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="43"/>
+    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="43"/>
+    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="43"/>
+    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="43"/>
+    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="43"/>
+    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="43"/>
+    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="43"/>
+    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="43"/>
+    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="43"/>
+    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="43"/>
+    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="43"/>
+    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="43"/>
+    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="43"/>
+    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="43"/>
+    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="43"/>
+    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="43"/>
+    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="43"/>
+    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="43"/>
+    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="43"/>
+    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="43"/>
+    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="43"/>
+    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="43"/>
+    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="43"/>
+    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="43"/>
+    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="43"/>
+    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="43"/>
+    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="43"/>
+    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="43"/>
+    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="43"/>
+    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="43"/>
+    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="43"/>
+    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="43"/>
+    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="43"/>
+    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="43"/>
+    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="43"/>
+    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="43"/>
+    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="43"/>
+    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="43"/>
+    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="43"/>
+    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="43"/>
+    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14166,14 +14168,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14183,6 +14177,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14203,43 +14205,43 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14257,23 +14259,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14287,25 +14289,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14318,23 +14320,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14348,25 +14350,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14379,21 +14381,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -14805,14 +14807,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14822,6 +14816,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14845,43 +14847,43 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14899,23 +14901,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14929,25 +14931,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14960,23 +14962,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14990,25 +14992,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -15021,21 +15023,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -15354,14 +15356,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15371,6 +15365,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FDE428-C6CA-4655-A329-8E7902ED4944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4597D40C-4774-4514-A8D0-4A95CD15DFE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1294,6 +1292,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1405,110 +1508,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1518,12 +1522,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1673,8 +1671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2297,8 +2295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4754880" y="5013960"/>
-          <a:ext cx="5252085" cy="2057400"/>
+          <a:off x="4419600" y="5191125"/>
+          <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -5291,8 +5289,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4837458" y="7330523"/>
-          <a:ext cx="5268981" cy="2087217"/>
+          <a:off x="4439892" y="7391814"/>
+          <a:ext cx="4846569" cy="2112065"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -6485,8 +6483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="351081" y="857250"/>
-          <a:ext cx="9342884" cy="1626705"/>
+          <a:off x="326233" y="840685"/>
+          <a:ext cx="8572602" cy="1646583"/>
           <a:chOff x="328074" y="836083"/>
           <a:chExt cx="8629659" cy="1734931"/>
         </a:xfrm>
@@ -7861,7 +7859,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト検索</a:t>
+            <a:t>プロジェクト照会</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8689,8 +8687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="404008" y="3904007"/>
-          <a:ext cx="9273024" cy="2672384"/>
+          <a:off x="379160" y="3923885"/>
+          <a:ext cx="8502742" cy="2703858"/>
           <a:chOff x="380378" y="4042034"/>
           <a:chExt cx="8540501" cy="2796428"/>
         </a:xfrm>
@@ -10279,44 +10277,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="24"/>
-    <col min="10" max="10" width="16.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="24"/>
+    <col min="1" max="9" width="8.83203125" style="24"/>
+    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -10324,12 +10322,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -10340,42 +10338,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="29"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="28"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="28"/>
       <c r="G31" s="30"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
       <c r="H32" s="28"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="28"/>
       <c r="H33" s="28"/>
       <c r="J33" s="32"/>
@@ -10385,7 +10383,7 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="28"/>
       <c r="H34" s="28"/>
       <c r="J34" s="31"/>
@@ -10398,515 +10396,515 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="36"/>
       <c r="P36" s="35"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="35"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -10914,7 +10912,7 @@
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10931,63 +10929,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -10995,53 +10993,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11049,45 +11047,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11124,1215 +11122,1059 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="157" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="154"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="154"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="154"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="154"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="154"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="154"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="154"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="154"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="154"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="154"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="154"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="154"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="154"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="154"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12356,6 +12198,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12376,299 +12374,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="54" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="54" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="43"/>
-    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="43"/>
-    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="43"/>
-    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="43"/>
-    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="43"/>
-    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="43"/>
-    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="43"/>
-    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="43"/>
-    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="43"/>
-    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="43"/>
-    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="43"/>
-    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="43"/>
-    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="43"/>
-    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="43"/>
-    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="43"/>
-    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="43"/>
-    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="43"/>
-    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="43"/>
-    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="43"/>
-    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="43"/>
-    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="43"/>
-    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="43"/>
-    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="43"/>
-    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="43"/>
-    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="43"/>
-    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="43"/>
-    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="43"/>
-    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="43"/>
-    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="43"/>
-    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="43"/>
-    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="43"/>
-    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="43"/>
-    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="43"/>
-    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="43"/>
-    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="43"/>
-    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="43"/>
-    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="43"/>
-    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="43"/>
-    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="43"/>
-    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="43"/>
-    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="43"/>
-    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="43"/>
-    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="43"/>
-    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="43"/>
-    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="43"/>
-    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="43"/>
-    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="43"/>
-    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="43"/>
-    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="43"/>
-    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="43"/>
-    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="43"/>
-    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="43"/>
-    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="43"/>
-    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="43"/>
-    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="43"/>
-    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="43"/>
-    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="43"/>
-    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="43"/>
-    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="43"/>
-    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="43"/>
-    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="43"/>
-    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="43"/>
-    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="43"/>
-    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="54" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="54" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14168,6 +14166,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14177,14 +14183,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14205,43 +14203,43 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.875" style="7"/>
+    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14259,23 +14257,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14289,25 +14287,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14320,23 +14318,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14350,25 +14348,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14381,21 +14379,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -14807,6 +14805,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14816,14 +14822,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14847,43 +14845,43 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.875" style="7"/>
+    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14901,23 +14899,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14931,25 +14929,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14962,23 +14960,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14992,25 +14990,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -15023,21 +15021,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -15356,6 +15354,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15365,14 +15371,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FDE428-C6CA-4655-A329-8E7902ED4944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDF295-057B-4FB4-BA4C-8242B46D85E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>PJ名</t>
   </si>
@@ -248,7 +246,28 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第１．２版</t>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>オブジェクトのフォントを統一</t>
+    <rPh sb="12" eb="14">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -256,13 +275,6 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>1.2版</t>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1294,6 +1306,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1405,110 +1522,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1518,12 +1536,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1673,8 +1685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2297,8 +2309,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4754880" y="5013960"/>
-          <a:ext cx="5252085" cy="2057400"/>
+          <a:off x="4419600" y="5191125"/>
+          <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -5291,8 +5303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4837458" y="7330523"/>
-          <a:ext cx="5268981" cy="2087217"/>
+          <a:off x="4486275" y="7505700"/>
+          <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -6485,8 +6497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="351081" y="857250"/>
-          <a:ext cx="9342884" cy="1626705"/>
+          <a:off x="329132" y="857250"/>
+          <a:ext cx="8662468" cy="1671431"/>
           <a:chOff x="328074" y="836083"/>
           <a:chExt cx="8629659" cy="1734931"/>
         </a:xfrm>
@@ -7444,8 +7456,8 @@
               <a:r>
                 <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                  <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>登録失敗</a:t>
@@ -7455,8 +7467,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="ＭＳ 明朝"/>
-                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                  <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                 </a:rPr>
                 <a:t>/</a:t>
               </a:r>
@@ -7465,8 +7477,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="ＭＳ 明朝"/>
-                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                  <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                 </a:rPr>
                 <a:t>戻る</a:t>
               </a:r>
@@ -8689,8 +8701,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="404008" y="3904007"/>
-          <a:ext cx="9273024" cy="2672384"/>
+          <a:off x="382059" y="3986005"/>
+          <a:ext cx="8592608" cy="2743200"/>
           <a:chOff x="380378" y="4042034"/>
           <a:chExt cx="8540501" cy="2796428"/>
         </a:xfrm>
@@ -9628,8 +9640,8 @@
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
                     <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
                   <a:t>更新</a:t>
@@ -9637,8 +9649,8 @@
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
                     <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
                   <a:t>失敗</a:t>
@@ -9648,8 +9660,8 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="ＭＳ 明朝"/>
-                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                   </a:rPr>
                   <a:t>/</a:t>
                 </a:r>
@@ -9658,8 +9670,8 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="ＭＳ 明朝"/>
-                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
                   </a:rPr>
                   <a:t>戻る</a:t>
                 </a:r>
@@ -10279,103 +10291,103 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="24"/>
-    <col min="10" max="10" width="16.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="24"/>
+    <col min="1" max="9" width="8.83203125" style="24"/>
+    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="29"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="28"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="28"/>
       <c r="G30" s="30"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="28"/>
       <c r="G31" s="30"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
       <c r="H32" s="28"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="28"/>
       <c r="H33" s="28"/>
       <c r="J33" s="32"/>
@@ -10385,7 +10397,7 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="28"/>
       <c r="H34" s="28"/>
       <c r="J34" s="31"/>
@@ -10398,515 +10410,515 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="36"/>
       <c r="P36" s="35"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="35"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -10914,7 +10926,7 @@
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10931,63 +10943,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -10995,53 +11007,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11049,45 +11061,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11124,1215 +11136,1073 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
+    </row>
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
-        <v>43895</v>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88">
+        <v>44796</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="157" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
-        <v>35</v>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="103" t="s">
+        <v>38</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
-    </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="154"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="154"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="154"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="154"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="154"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="154"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="154"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="154"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="154"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="154"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="154"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="154"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="154"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="154"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12356,6 +12226,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12376,299 +12402,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="54" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="54" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="43"/>
-    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="43"/>
-    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="43"/>
-    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="43"/>
-    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="43"/>
-    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="43"/>
-    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="43"/>
-    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="43"/>
-    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="43"/>
-    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="43"/>
-    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="43"/>
-    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="43"/>
-    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="43"/>
-    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="43"/>
-    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="43"/>
-    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="43"/>
-    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="43"/>
-    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="43"/>
-    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="43"/>
-    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="43"/>
-    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="43"/>
-    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="43"/>
-    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="43"/>
-    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="43"/>
-    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="43"/>
-    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="43"/>
-    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="43"/>
-    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="43"/>
-    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="43"/>
-    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="43"/>
-    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="43"/>
-    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="43"/>
-    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="43"/>
-    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="43"/>
-    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="43"/>
-    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="43"/>
-    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="43"/>
-    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="43"/>
-    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="43"/>
-    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="43"/>
-    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="43"/>
-    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="43"/>
-    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="43"/>
-    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="43"/>
-    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="43"/>
-    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="43"/>
-    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="43"/>
-    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="43"/>
-    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="43"/>
-    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="43"/>
-    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="43"/>
-    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="43"/>
-    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="43"/>
-    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="43"/>
-    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="43"/>
-    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="43"/>
-    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="43"/>
-    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="43"/>
-    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="43"/>
-    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="43"/>
-    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="43"/>
-    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="43"/>
-    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="43"/>
-    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="54" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="54" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14168,6 +14194,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14177,14 +14211,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14205,43 +14231,43 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.875" style="7"/>
+    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14259,23 +14285,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14289,25 +14315,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14320,23 +14346,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14350,25 +14376,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14381,21 +14407,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -14807,6 +14833,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14816,14 +14850,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14843,47 +14869,47 @@
   </sheetPr>
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ48" sqref="AQ48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.875" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.875" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.875" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.875" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.875" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.875" style="7"/>
+    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14901,23 +14927,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14931,25 +14957,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14962,23 +14988,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14992,25 +15018,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -15023,21 +15049,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -15356,6 +15382,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15365,14 +15399,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDF295-057B-4FB4-BA4C-8242B46D85E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE0BB9-6748-4BEC-949D-A59803925D08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>PJ名</t>
   </si>
@@ -260,13 +260,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>オブジェクトのフォントを統一</t>
-    <rPh sb="12" eb="14">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>第１．３版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -275,6 +268,31 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1. ログイン(A101)
+2. プロジェクト管理(A102)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・ログアウト画面を廃止、ログアウト処理としてログインへ統合。
+・オブジェクトのフォントを統一</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1306,236 +1324,236 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2309,8 +2327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5191125"/>
-          <a:ext cx="4895850" cy="2143125"/>
+          <a:off x="4454769" y="5312019"/>
+          <a:ext cx="4933218" cy="2198077"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -4073,15 +4091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>159091</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56067</xdr:rowOff>
+      <xdr:colOff>137111</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>102672</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140328</xdr:rowOff>
+      <xdr:colOff>80692</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4098,8 +4116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4532308" y="2772763"/>
-          <a:ext cx="763560" cy="225065"/>
+          <a:off x="4591880" y="2078298"/>
+          <a:ext cx="778850" cy="230799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4155,180 +4173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="896178" y="3413263"/>
-          <a:ext cx="2459935" cy="1434548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4732268" y="3375163"/>
-          <a:ext cx="1471406" cy="205409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA10102/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53837</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241789</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:colOff>206622</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4341,18 +4195,16 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="137" idx="0"/>
+          <a:endCxn id="118" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="2901590" y="1427730"/>
-          <a:ext cx="1837082" cy="3159370"/>
+          <a:off x="4249011" y="1073267"/>
+          <a:ext cx="303081" cy="2192217"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
@@ -4421,71 +4273,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>55177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2095500" y="3925956"/>
-          <a:ext cx="289892" cy="207065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84483</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4502,8 +4299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4853163" y="3927614"/>
-          <a:ext cx="1093305" cy="563217"/>
+          <a:off x="2294793" y="2143350"/>
+          <a:ext cx="1009649" cy="355131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4538,27 +4335,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログアウト【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1010201</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
+            <a:t>ログアウト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4567,16 +4344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206619</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84485</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86205</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4593,15 +4370,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1299923" y="2088875"/>
-          <a:ext cx="568633" cy="2120349"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1899139" y="2017836"/>
+          <a:ext cx="395654" cy="303081"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -94096"/>
-            <a:gd name="adj2" fmla="val 56641"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
@@ -4619,16 +4393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>240197</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>75945</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19402</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153864</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4645,8 +4419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="786849" y="2792641"/>
-          <a:ext cx="1043608" cy="225065"/>
+          <a:off x="1317254" y="2354618"/>
+          <a:ext cx="1063995" cy="236534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10333,7 +10107,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10949,57 +10723,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -11007,53 +10781,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11061,45 +10835,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11136,1073 +10910,1229 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="137">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="138"/>
+      <c r="D8" s="139">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="152"/>
+      <c r="D10" s="125">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
-    </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
+    </row>
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88">
+      <c r="C11" s="152"/>
+      <c r="D11" s="125">
         <v>44796</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="102" t="s">
-        <v>32</v>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="134" t="s">
+        <v>39</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103" t="s">
-        <v>38</v>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134" t="s">
+        <v>40</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12226,162 +12156,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12538,163 +12312,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14194,14 +13968,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14211,6 +13977,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14227,8 +14001,8 @@
   </sheetPr>
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -14249,25 +14023,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14285,23 +14059,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14315,25 +14089,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14346,23 +14120,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14376,25 +14150,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14407,21 +14181,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -14833,14 +14607,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14850,6 +14616,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14891,25 +14665,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14927,23 +14701,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14957,25 +14731,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14988,23 +14762,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -15018,25 +14792,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -15049,21 +14823,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -15382,14 +15156,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15399,6 +15165,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE0BB9-6748-4BEC-949D-A59803925D08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD566303-2239-4333-9F44-BE9CF7D0BE66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,15 +13,18 @@
     <sheet name="目次" sheetId="36" r:id="rId3"/>
     <sheet name="1. ログイン(A101)" sheetId="37" r:id="rId4"/>
     <sheet name="2. プロジェクト管理(A102)" sheetId="38" r:id="rId5"/>
+    <sheet name="3. 共通(A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. 共通(A103)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>PJ名</t>
   </si>
@@ -270,13 +273,25 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
+    <t>3. 共通(A103)</t>
+  </si>
+  <si>
+    <t>3. 共通(A103)</t>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>1. ログイン(A101)
-2. プロジェクト管理(A102)</t>
+2. プロジェクト管理(A102)
+3. 共通(A103)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・ログアウト画面を廃止、ログアウト処理としてログインへ統合。
-・オブジェクトのフォントを統一</t>
+・オブジェクトのフォントを統一
+・3. 共通(A103)を追加（TOPメニュー、汎用エラーを移動）</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
@@ -291,6 +306,15 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>トウイツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1324,6 +1348,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1435,110 +1564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1548,12 +1578,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2327,8 +2351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4454769" y="5312019"/>
-          <a:ext cx="4933218" cy="2198077"/>
+          <a:off x="4419600" y="5191125"/>
+          <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -3497,170 +3521,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2838450" y="1181100"/>
-          <a:ext cx="2486025" cy="1457325"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="1000125"/>
-          <a:ext cx="1485900" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA10103/TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>メニュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -3668,9 +3528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
+      <xdr:colOff>212481</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>96970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3683,13 +3543,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="3"/>
-          <a:endCxn id="92" idx="1"/>
+          <a:endCxn id="43" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2455985" y="1871296"/>
-          <a:ext cx="2483827" cy="0"/>
+          <a:off x="2455985" y="1724758"/>
+          <a:ext cx="2489688" cy="20770"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3926,263 +3786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241789</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4449417" y="1160393"/>
-          <a:ext cx="2459935" cy="1434548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4732268" y="981489"/>
-          <a:ext cx="1471406" cy="205409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA10104/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>汎用エラー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>137111</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>136663</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>80692</xdr:colOff>
+      <xdr:colOff>197824</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>74385</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4591880" y="2078298"/>
-          <a:ext cx="778850" cy="230799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241789</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>206622</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86204</xdr:rowOff>
+      <xdr:rowOff>89642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4194,67 +3807,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="2"/>
+          <a:stCxn id="42" idx="1"/>
           <a:endCxn id="118" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="4249011" y="1073267"/>
-          <a:ext cx="303081" cy="2192217"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="108" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5946468" y="1807266"/>
-          <a:ext cx="12700" cy="2401957"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3304443" y="2320916"/>
+          <a:ext cx="1626573" cy="3438"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 9821740"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -4335,7 +3899,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログアウト</a:t>
+            <a:t>ログアウト処理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4476,193 +4040,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>59700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3282</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107198</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6072874" y="1613198"/>
-          <a:ext cx="763560" cy="225065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー発生</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000096000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="153" idx="0"/>
-          <a:endCxn id="151" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5797805" y="2087216"/>
-          <a:ext cx="0" cy="1838740"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="1847021"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190478</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -4719,22 +4096,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>197823</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>93779</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 274">
+        <xdr:cNvPr id="42" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776F67D8-9ECC-4E80-8BF5-D377EDC6FDAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4744,109 +4121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4939812" y="1578219"/>
-          <a:ext cx="1113693" cy="586154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>メニュー【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1010301</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84483</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4853163" y="3927614"/>
-          <a:ext cx="1093305" cy="563217"/>
+          <a:off x="4931015" y="2146788"/>
+          <a:ext cx="1009649" cy="355131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4881,18 +4157,23 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>汎用エラー【</a:t>
+            <a:t>ヘッダー部</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1010401</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -4901,7 +4182,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>】</a:t>
+            <a:t>ログアウト押下時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4910,61 +4191,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1720</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>122328</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>218628</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65785</xdr:rowOff>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127997</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Text Box 13">
+        <xdr:cNvPr id="43" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C5C64C-CCAE-4935-BC57-0E52714870AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
+        <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5468242" y="3683850"/>
-          <a:ext cx="763560" cy="225065"/>
+          <a:off x="4945673" y="1567962"/>
+          <a:ext cx="1194289" cy="355131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
@@ -4984,7 +4253,27 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>戻る</a:t>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>/TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>メニューへ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9712,6 +9001,2449 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B4E654-F4AB-420F-83C3-914FCCC9B250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4419600" y="5191125"/>
+          <a:ext cx="4895850" cy="2143125"/>
+          <a:chOff x="4143375" y="7905750"/>
+          <a:chExt cx="4895850" cy="2152649"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F9CCC3-4658-4A78-AEDF-D5C1FA11B351}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4313877" y="8806655"/>
+            <a:ext cx="706366" cy="391391"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>AAA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="900"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>【BBB】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DF3D7A-3D0F-49A5-A25D-2364733C65DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4143375" y="7905750"/>
+            <a:ext cx="4895850" cy="2152649"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D798CF-E228-4C60-96D6-3666734A61AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4208328" y="8028059"/>
+            <a:ext cx="649532" cy="212003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>【凡例】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07C4EF1-CA1E-4CA5-94B4-D96F53F6E054}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6863292" y="8272534"/>
+            <a:ext cx="576460" cy="171233"/>
+            <a:chOff x="4124325" y="10129794"/>
+            <a:chExt cx="676275" cy="200025"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEA584A-3F38-4091-9327-52387DD98FED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeShapeType="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm flipV="1">
+              <a:off x="4124325" y="10325100"/>
+              <a:ext cx="676275" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017C342C-D735-46AD-922B-F9A28D19CE2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4230750" y="10129794"/>
+              <a:ext cx="409575" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ 明朝"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                </a:rPr>
+                <a:t>CCC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077DAED4-010D-4FFB-9F24-44AB41087309}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093315" y="8658226"/>
+            <a:ext cx="1455598" cy="702900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>表示画面</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>(メインウィンドウ)を表す。</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>AAA：画面名称</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>BBB：画面ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF324B3-E7FF-438A-9367-0B0C64DDD331}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7861948" y="8292955"/>
+            <a:ext cx="1161039" cy="350621"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>画面遷移を表す。</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>CCC：ボタン/リンク名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B30B30C-B82B-4000-82BD-749DF2EEF530}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4581809" y="8350032"/>
+            <a:ext cx="170502" cy="171233"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln w="9525" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D19C1B-1C49-48AA-8961-683FA6F101D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093316" y="8374493"/>
+            <a:ext cx="1047371" cy="178957"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>トップ画面を表す。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823CA8B4-F8B0-40E4-81D0-A530090A9920}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6668432" y="8888195"/>
+            <a:ext cx="1079848" cy="301697"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CCFFFF">
+              <a:alpha val="59999"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="15875" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="33CCCC"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D514787-1B7E-4B60-A1AC-E7F60AB9F65E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6993198" y="8719631"/>
+            <a:ext cx="454673" cy="167194"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>DDD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>EEE</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E410D35B-C106-44FF-900B-C8B723BB5C5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7861948" y="8814809"/>
+            <a:ext cx="1136682" cy="691141"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>画面設計書の</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>記載範囲。</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>DDD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>：画面設計書ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>EEE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>：画面設計書名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9379030-8FF1-430F-86B9-B79874C9F91E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4313877" y="9352971"/>
+            <a:ext cx="706366" cy="391391"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>AAA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="900"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>【BBB】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5109D4E3-E5D1-4CAB-B35D-36F5EF2980A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093316" y="9352971"/>
+            <a:ext cx="1428971" cy="676854"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>表示画面(サブウィンドウ)を表す。</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>AAA：画面名称</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>BBB：画面ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32238</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32238</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A761D5-5745-443B-A92C-558335B17354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3094892" y="1041888"/>
+          <a:ext cx="2505808" cy="1497623"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41763</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDEBE2A-8511-4EED-8EDE-C00FF4CD3DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3382840" y="857250"/>
+          <a:ext cx="1496891" cy="216877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10301/TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>メニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212482</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162658</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0CA402-DE47-4A6E-B5AD-00C7F20B7B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1883020" y="1705455"/>
+          <a:ext cx="1620715" cy="11976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32238</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32238</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512E9F12-69A9-436B-AA31-A74CC547B27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3094892" y="3533042"/>
+          <a:ext cx="2505808" cy="1497623"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07004D1C-5DEC-43FF-9A6A-4C9E0CE4376D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3382840" y="3348404"/>
+          <a:ext cx="1496891" cy="216877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10302/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>汎用エラー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>93149</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36730</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B43D1A-AFE5-4DB9-9FE2-88E8FBBCF601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3155803" y="2070971"/>
+          <a:ext cx="778850" cy="230799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197828</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69ABF4D-82DE-4299-B37B-A9F6311187AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2812934" y="1065940"/>
+          <a:ext cx="303081" cy="2192217"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175359</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38230C97-674E-4CAE-BB69-9EA812E2C523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4617428" y="1717432"/>
+          <a:ext cx="12700" cy="2499437"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9821740"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23447</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD68F87B-20AB-4678-8CDE-6E577CFB6CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="858716" y="2136023"/>
+          <a:ext cx="1009649" cy="355131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログインのログアウト処理へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15739</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237744</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75865201-4D90-4406-92AD-B3632DF21E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4748931" y="1517629"/>
+          <a:ext cx="778851" cy="230800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>エラー発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13996</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13996</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE388B7-DE5F-430B-9B01-71B4C5B1C1CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="0"/>
+          <a:endCxn id="37" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4468765" y="2008850"/>
+          <a:ext cx="0" cy="1913284"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146517</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>154800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A820F1F0-46FD-4EB9-AF30-D4593EDFD738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4322863" y="1757187"/>
+          <a:ext cx="286706" cy="251663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146517</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>154800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84686448-B6E2-4C37-93A6-A5C1D3646E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4322863" y="3922134"/>
+          <a:ext cx="286706" cy="251663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B9F82F-F209-499C-9FFC-292A5EF74DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3503735" y="1424354"/>
+          <a:ext cx="1113693" cy="586154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>メニュー【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1030101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162658</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2EE386-0E03-44E3-821C-46CE8ECC9C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3503735" y="3923792"/>
+          <a:ext cx="1113693" cy="586152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>汎用エラー【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1030201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236182</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174667</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014CAE7-AFDD-401A-82C7-F0655446B110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4134105" y="3668559"/>
+          <a:ext cx="773754" cy="236534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212482</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF04A41-484B-4782-A5D1-5818DA13728F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="873371" y="1527889"/>
+          <a:ext cx="1009649" cy="355131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログイン認証</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>正常時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -10714,7 +12446,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D18" sqref="D18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10723,57 +12455,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -10781,53 +12513,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -10835,45 +12567,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -10910,1229 +12642,1073 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="153" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
-    </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
+    </row>
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125">
+      <c r="C11" s="87"/>
+      <c r="D11" s="88">
         <v>44796</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="134" t="s">
-        <v>39</v>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="103" t="s">
+        <v>41</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134" t="s">
-        <v>40</v>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="103" t="s">
+        <v>42</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131" t="s">
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12156,6 +13732,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12173,7 +13905,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12312,163 +14044,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12739,7 +14471,9 @@
     </row>
     <row r="11" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="65" t="s">
+        <v>39</v>
+      </c>
       <c r="C11" s="70"/>
       <c r="D11" s="67"/>
       <c r="E11" s="70"/>
@@ -13968,6 +15702,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13977,14 +15719,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14001,8 +15735,8 @@
   </sheetPr>
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -14023,25 +15757,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14059,23 +15793,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14089,25 +15823,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14120,23 +15854,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14150,25 +15884,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14181,21 +15915,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -14607,6 +16341,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14616,14 +16358,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14665,25 +16399,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -14701,23 +16435,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -14731,25 +16465,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -14762,23 +16496,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -14792,25 +16526,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -14823,21 +16557,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -15156,6 +16890,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15165,14 +16907,648 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413FFD40-CA99-43A3-B8B2-919180F643BE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AX35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
+    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
+        <v>画面遷移図</v>
+      </c>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
+        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
+        <v>43595</v>
+      </c>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="15"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+    </row>
+    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
+        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="15"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+    </row>
+    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
+        <v>プロジェクト管理システム</v>
+      </c>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+    </row>
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+    </row>
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="14"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7"/>
+      <c r="I8" s="14"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="7"/>
+      <c r="I9" s="14"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="14"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="14"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="14"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="14"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="16"/>
+      <c r="P18" s="7"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="Z18" s="16"/>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="14"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="14"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="14"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="14"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="14"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="14"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="14"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="F28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+    </row>
+    <row r="29" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="14"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="F31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="14"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="F33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7"/>
+      <c r="I34" s="14"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="I35" s="14"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="16"/>
+      <c r="P35" s="7"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="Z35" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
